--- a/UserStoryTask1xlsx.xlsx
+++ b/UserStoryTask1xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Description:</t>
   </si>
@@ -51,6 +51,9 @@
       </rPr>
       <t xml:space="preserve"> the people seeking for skills and languages can look at what details I hold.</t>
     </r>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -1313,7 +1316,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1370,22 +1373,25 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" ht="42.75" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B5" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1398,91 +1404,91 @@
     </row>
     <row r="7" ht="85.5" spans="1:7">
       <c r="A7" s="15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="71.25" spans="2:7">
       <c r="B8" s="10"/>
       <c r="C8" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="2:7">
       <c r="B9" s="10"/>
       <c r="C9" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="14"/>
       <c r="G9" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="57" spans="1:7">
       <c r="A10" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="57" spans="2:7">
       <c r="B11" s="10"/>
       <c r="C11" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="2:7">
       <c r="B12" s="10"/>
       <c r="C12" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -1491,10 +1497,10 @@
     <row r="13" ht="42.75" spans="2:7">
       <c r="B13" s="10"/>
       <c r="C13" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1503,10 +1509,10 @@
     <row r="14" ht="28.5" spans="2:7">
       <c r="B14" s="10"/>
       <c r="C14" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1515,10 +1521,10 @@
     <row r="15" ht="42.75" spans="2:7">
       <c r="B15" s="10"/>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -1527,10 +1533,10 @@
     <row r="16" ht="42.75" spans="2:7">
       <c r="B16" s="10"/>
       <c r="C16" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -1539,10 +1545,10 @@
     <row r="17" ht="42.75" spans="2:7">
       <c r="B17" s="10"/>
       <c r="C17" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -1551,10 +1557,10 @@
     <row r="18" ht="42.75" spans="2:7">
       <c r="B18" s="10"/>
       <c r="C18" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -1563,10 +1569,10 @@
     <row r="19" ht="42.75" spans="2:7">
       <c r="B19" s="10"/>
       <c r="C19" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1574,16 +1580,16 @@
     </row>
     <row r="20" ht="42.75" spans="1:7">
       <c r="A20" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -1592,10 +1598,10 @@
     <row r="21" ht="28.5" spans="2:7">
       <c r="B21" s="10"/>
       <c r="C21" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -1604,10 +1610,10 @@
     <row r="22" ht="42.75" spans="2:7">
       <c r="B22" s="10"/>
       <c r="C22" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -1616,10 +1622,10 @@
     <row r="23" ht="28.5" spans="2:7">
       <c r="B23" s="10"/>
       <c r="C23" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -1627,16 +1633,16 @@
     </row>
     <row r="24" ht="42.75" spans="1:7">
       <c r="A24" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1645,10 +1651,10 @@
     <row r="25" ht="42.75" spans="2:7">
       <c r="B25" s="4"/>
       <c r="C25" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1657,10 +1663,10 @@
     <row r="26" ht="28.5" spans="2:7">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1669,10 +1675,10 @@
     <row r="27" ht="42.75" spans="2:7">
       <c r="B27" s="4"/>
       <c r="C27" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1681,10 +1687,10 @@
     <row r="28" ht="28.5" spans="2:7">
       <c r="B28" s="4"/>
       <c r="C28" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1693,10 +1699,10 @@
     <row r="29" ht="42.75" spans="2:7">
       <c r="B29" s="4"/>
       <c r="C29" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1705,10 +1711,10 @@
     <row r="30" ht="42.75" spans="2:7">
       <c r="B30" s="4"/>
       <c r="C30" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1717,10 +1723,10 @@
     <row r="31" ht="42.75" spans="2:7">
       <c r="B31" s="4"/>
       <c r="C31" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1729,10 +1735,10 @@
     <row r="32" ht="42.75" spans="2:7">
       <c r="B32" s="4"/>
       <c r="C32" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1741,10 +1747,10 @@
     <row r="33" ht="42.75" spans="2:7">
       <c r="B33" s="4"/>
       <c r="C33" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1752,16 +1758,16 @@
     </row>
     <row r="34" ht="42.75" spans="1:7">
       <c r="A34" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1770,10 +1776,10 @@
     <row r="35" ht="28.5" spans="2:7">
       <c r="B35" s="4"/>
       <c r="C35" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1782,10 +1788,10 @@
     <row r="36" ht="42.75" spans="2:7">
       <c r="B36" s="4"/>
       <c r="C36" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1794,10 +1800,10 @@
     <row r="37" ht="28.5" spans="2:7">
       <c r="B37" s="4"/>
       <c r="C37" s="8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>

--- a/UserStoryTask1xlsx.xlsx
+++ b/UserStoryTask1xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>Description:</t>
   </si>
@@ -26,6 +26,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>As a</t>
     </r>
     <r>
@@ -40,6 +47,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>So that</t>
     </r>
     <r>
@@ -311,8 +325,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
@@ -348,38 +362,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,60 +416,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,6 +455,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -484,9 +477,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,187 +515,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,6 +720,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,24 +772,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -784,6 +789,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -797,7 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,134 +829,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,12 +984,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -987,12 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1315,8 +1317,8 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1383,27 +1385,27 @@
       <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" ht="85.5" spans="1:7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1412,45 +1414,45 @@
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" ht="71.25" spans="2:7">
-      <c r="B8" s="10"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="2:7">
-      <c r="B9" s="10"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="16" t="s">
+      <c r="F9" s="12"/>
+      <c r="G9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" ht="57" spans="1:7">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -1459,127 +1461,129 @@
       <c r="C10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="16" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" ht="57" spans="2:7">
-      <c r="B11" s="10"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="16" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" ht="28.5" spans="2:7">
-      <c r="B12" s="10"/>
+    <row r="12" ht="57" spans="2:7">
+      <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" ht="42.75" spans="2:7">
-      <c r="B13" s="10"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" ht="28.5" spans="2:7">
-      <c r="B14" s="10"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" ht="42.75" spans="2:7">
-      <c r="B15" s="10"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" ht="42.75" spans="2:7">
-      <c r="B16" s="10"/>
+      <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" ht="42.75" spans="2:7">
-      <c r="B17" s="10"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" ht="42.75" spans="2:7">
-      <c r="B18" s="10"/>
+      <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" ht="42.75" spans="2:7">
-      <c r="B19" s="10"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" ht="42.75" spans="1:7">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -1588,60 +1592,60 @@
       <c r="C20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" ht="28.5" spans="2:7">
-      <c r="B21" s="10"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
     </row>
     <row r="22" ht="42.75" spans="2:7">
-      <c r="B22" s="10"/>
+      <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23" ht="28.5" spans="2:7">
-      <c r="B23" s="10"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" ht="42.75" spans="1:7">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="4" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>59</v>
       </c>
       <c r="E24" s="4"/>
@@ -1653,7 +1657,7 @@
       <c r="C25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="4"/>
@@ -1665,7 +1669,7 @@
       <c r="C26" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>63</v>
       </c>
       <c r="E26" s="4"/>
@@ -1677,7 +1681,7 @@
       <c r="C27" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E27" s="4"/>
@@ -1689,7 +1693,7 @@
       <c r="C28" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4"/>
@@ -1701,7 +1705,7 @@
       <c r="C29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>69</v>
       </c>
       <c r="E29" s="4"/>
@@ -1713,7 +1717,7 @@
       <c r="C30" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>71</v>
       </c>
       <c r="E30" s="4"/>
@@ -1725,7 +1729,7 @@
       <c r="C31" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="4"/>
@@ -1737,7 +1741,7 @@
       <c r="C32" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>75</v>
       </c>
       <c r="E32" s="4"/>
@@ -1749,7 +1753,7 @@
       <c r="C33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>77</v>
       </c>
       <c r="E33" s="4"/>
@@ -1757,7 +1761,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" ht="42.75" spans="1:7">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -1766,7 +1770,7 @@
       <c r="C34" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>81</v>
       </c>
       <c r="E34" s="4"/>
@@ -1778,7 +1782,7 @@
       <c r="C35" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>83</v>
       </c>
       <c r="E35" s="4"/>
@@ -1790,7 +1794,7 @@
       <c r="C36" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>85</v>
       </c>
       <c r="E36" s="4"/>
@@ -1802,7 +1806,7 @@
       <c r="C37" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
         <v>87</v>
       </c>
       <c r="E37" s="4"/>

--- a/UserStoryTask1xlsx.xlsx
+++ b/UserStoryTask1xlsx.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="89">
   <si>
     <t>Description:</t>
   </si>
@@ -107,6 +107,9 @@
     <t>1.2 Check whether user can see language field after clicking on Go To Profile in USerName dropdown.</t>
   </si>
   <si>
+    <t>Follw PR1 and PR2</t>
+  </si>
+  <si>
     <t>1. Navigate to Profile page by clicking on UserName Drop down and clicking on Go To Profile.</t>
   </si>
   <si>
@@ -324,10 +327,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -362,8 +365,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,29 +375,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,7 +397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,23 +405,23 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,6 +435,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -462,8 +450,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -471,13 +474,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -487,20 +504,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,43 +518,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,25 +674,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,109 +698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,25 +713,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,26 +742,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,6 +777,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,7 +814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,130 +832,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1317,8 +1320,8 @@
   <sheetPr/>
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1432,79 +1435,81 @@
         <v>17</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" ht="42.75" spans="2:7">
       <c r="B9" s="8"/>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="12"/>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="57" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="57" spans="2:7">
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="57" spans="2:7">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="42.75" spans="2:7">
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -1513,10 +1518,10 @@
     <row r="14" ht="28.5" spans="2:7">
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1525,10 +1530,10 @@
     <row r="15" ht="42.75" spans="2:7">
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -1537,10 +1542,10 @@
     <row r="16" ht="42.75" spans="2:7">
       <c r="B16" s="8"/>
       <c r="C16" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -1549,10 +1554,10 @@
     <row r="17" ht="42.75" spans="2:7">
       <c r="B17" s="8"/>
       <c r="C17" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -1561,10 +1566,10 @@
     <row r="18" ht="42.75" spans="2:7">
       <c r="B18" s="8"/>
       <c r="C18" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -1573,10 +1578,10 @@
     <row r="19" ht="42.75" spans="2:7">
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
@@ -1584,16 +1589,16 @@
     </row>
     <row r="20" ht="42.75" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
@@ -1602,10 +1607,10 @@
     <row r="21" ht="28.5" spans="2:7">
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -1614,10 +1619,10 @@
     <row r="22" ht="42.75" spans="2:7">
       <c r="B22" s="8"/>
       <c r="C22" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -1626,10 +1631,10 @@
     <row r="23" ht="28.5" spans="2:7">
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -1637,16 +1642,16 @@
     </row>
     <row r="24" ht="42.75" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1655,10 +1660,10 @@
     <row r="25" ht="42.75" spans="2:7">
       <c r="B25" s="4"/>
       <c r="C25" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1667,10 +1672,10 @@
     <row r="26" ht="28.5" spans="2:7">
       <c r="B26" s="4"/>
       <c r="C26" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1679,10 +1684,10 @@
     <row r="27" ht="42.75" spans="2:7">
       <c r="B27" s="4"/>
       <c r="C27" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1691,10 +1696,10 @@
     <row r="28" ht="28.5" spans="2:7">
       <c r="B28" s="4"/>
       <c r="C28" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1703,10 +1708,10 @@
     <row r="29" ht="42.75" spans="2:7">
       <c r="B29" s="4"/>
       <c r="C29" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1715,10 +1720,10 @@
     <row r="30" ht="42.75" spans="2:7">
       <c r="B30" s="4"/>
       <c r="C30" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1727,10 +1732,10 @@
     <row r="31" ht="42.75" spans="2:7">
       <c r="B31" s="4"/>
       <c r="C31" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1739,10 +1744,10 @@
     <row r="32" ht="42.75" spans="2:7">
       <c r="B32" s="4"/>
       <c r="C32" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1751,10 +1756,10 @@
     <row r="33" ht="42.75" spans="2:7">
       <c r="B33" s="4"/>
       <c r="C33" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1762,16 +1767,16 @@
     </row>
     <row r="34" ht="42.75" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -1780,10 +1785,10 @@
     <row r="35" ht="28.5" spans="2:7">
       <c r="B35" s="4"/>
       <c r="C35" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1792,10 +1797,10 @@
     <row r="36" ht="42.75" spans="2:7">
       <c r="B36" s="4"/>
       <c r="C36" s="8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1804,10 +1809,10 @@
     <row r="37" ht="28.5" spans="2:7">
       <c r="B37" s="4"/>
       <c r="C37" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>

--- a/UserStoryTask1xlsx.xlsx
+++ b/UserStoryTask1xlsx.xlsx
@@ -107,7 +107,7 @@
     <t>1.2 Check whether user can see language field after clicking on Go To Profile in USerName dropdown.</t>
   </si>
   <si>
-    <t>Follw PR1 and PR2</t>
+    <t>Follow PR1 and PR2</t>
   </si>
   <si>
     <t>1. Navigate to Profile page by clicking on UserName Drop down and clicking on Go To Profile.</t>
@@ -365,24 +365,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,21 +388,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -419,24 +396,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,6 +489,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -451,59 +503,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,25 +518,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,12 +602,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -566,13 +632,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,121 +698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,6 +709,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -746,22 +770,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,9 +792,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,23 +809,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,130 +832,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/UserStoryTask1xlsx.xlsx
+++ b/UserStoryTask1xlsx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8130" activeTab="1"/>
+    <workbookView windowWidth="19215" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -149,8 +149,7 @@
     <t>1.1 Check if user is able to see the language fields in home page.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open the Application (http://localhost:5000/) in chrome Browser (PR1)
-</t>
+    <t>1. Open the Application (http://localhost:5000/) in chrome Browser (PR1)</t>
   </si>
   <si>
     <t>Url: (http://localhost:5000/)</t>
@@ -461,9 +460,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
@@ -505,19 +504,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,15 +534,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,7 +544,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,8 +596,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,14 +620,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,53 +634,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,175 +669,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,6 +879,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -897,8 +929,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -915,30 +949,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,20 +970,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -982,7 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1000,130 +999,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1904,8 +1903,8 @@
   <sheetPr/>
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/UserStoryTask1xlsx.xlsx
+++ b/UserStoryTask1xlsx.xlsx
@@ -215,7 +215,7 @@
 Level:</t>
   </si>
   <si>
-    <t>4.  click on add button</t>
+    <t>4.  click on add button.</t>
   </si>
   <si>
     <t>An error message should be displayed as 'Please Enter language and level'.</t>
@@ -460,10 +460,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -505,24 +505,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,37 +559,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,15 +597,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,7 +620,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,14 +628,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -669,55 +669,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,115 +819,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -879,6 +879,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -899,15 +923,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,21 +954,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -981,7 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -999,130 +999,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1903,8 +1903,8 @@
   <sheetPr/>
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/UserStoryTask1xlsx.xlsx
+++ b/UserStoryTask1xlsx.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19695" windowHeight="7545" activeTab="1"/>
+    <workbookView windowWidth="21240" windowHeight="9615" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Cases" sheetId="3" r:id="rId2"/>
+    <sheet name="Language Test Cases" sheetId="3" r:id="rId2"/>
+    <sheet name="Skills Test Cases" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="205">
   <si>
     <t>Description:</t>
   </si>
@@ -143,10 +144,10 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>1.1 Check if user is able to see the language fields in home page.</t>
+    <t>TC_Lang_01</t>
+  </si>
+  <si>
+    <t>1.1 Check if user is able to see the Language field in home page.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Open the Application (http://localhost:5000/) in chrome Browser (PR1)
@@ -156,20 +157,20 @@
     <t>Url: (http://localhost:5000/)</t>
   </si>
   <si>
-    <t>1. After successful login user should be able to see language tab on profile page.</t>
+    <t>1. After successful login user should be able to see Language tab on profile page.</t>
   </si>
   <si>
     <t>2. User login using valid credentials.(PR2)</t>
   </si>
   <si>
     <t>mailId- ashashank217@gmail.com
-password: SydnetQa2018</t>
-  </si>
-  <si>
-    <t>TC_02</t>
-  </si>
-  <si>
-    <t>1.2 Check whether user can see language field after clicking on Go To Profile in 'UserName' dropdown.</t>
+password: SydneyQa2018</t>
+  </si>
+  <si>
+    <t>TC_Lang_02</t>
+  </si>
+  <si>
+    <t>1.2 Check whether user can see Language field after clicking on Go To Profile in 'UserName' dropdown.</t>
   </si>
   <si>
     <t>Execute PR1 and PR2</t>
@@ -184,10 +185,10 @@
     <t>User can see Language field.</t>
   </si>
   <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>1.3 Check if the user can see language field after clicking on Profile Tab on home page</t>
+    <t>TC_Lang_03</t>
+  </si>
+  <si>
+    <t>1.3 Check if the user can see Language field after clicking on Profile Tab on home page</t>
   </si>
   <si>
     <t>1. Click on Profile tab on profile page</t>
@@ -196,10 +197,10 @@
     <t>User can see Language field in profile page.</t>
   </si>
   <si>
-    <t>TC_04</t>
-  </si>
-  <si>
-    <t>2.1 Check if user is able to add languages without giving any inputs and Clicking on add.</t>
+    <t>TC_Lang_04</t>
+  </si>
+  <si>
+    <t>2.1 Check if user is able to add Languages without giving any inputs and Clicking on add.</t>
   </si>
   <si>
     <t xml:space="preserve">2. Click on Languages tab
@@ -213,19 +214,19 @@
   </si>
   <si>
     <t>Language: 
-Level:</t>
+Level: Choose Language Level</t>
   </si>
   <si>
     <t>4.  click on add button</t>
   </si>
   <si>
-    <t>An error message should be displayed as 'Please Enter language and level'.</t>
-  </si>
-  <si>
-    <t>TC_05</t>
-  </si>
-  <si>
-    <t>2.2 Check if user is able to add languages after entering language and level, and then clicking on add.</t>
+    <t>An error message should be displayed as 'Please Enter Language and level'.</t>
+  </si>
+  <si>
+    <t>TC_Lang_05</t>
+  </si>
+  <si>
+    <t>2.2 Check if user is able to add Languages after entering valid Language and level, and then clicking on add.</t>
   </si>
   <si>
     <t>4. Give valid inputs.</t>
@@ -238,41 +239,41 @@
     <t>5.  click on add button</t>
   </si>
   <si>
-    <t>A message should be displayed as 'The "Language" has been added to your languages'.</t>
-  </si>
-  <si>
-    <t>TC_06</t>
+    <t>A message should be displayed as 'The "Language" has been added to your Languages'.</t>
+  </si>
+  <si>
+    <t>TC_Lang_06</t>
   </si>
   <si>
     <t>2.3 Verify if the user is able add same lanaguage with same level</t>
   </si>
   <si>
-    <t>4. Input already given both language and level.</t>
+    <t>4. Input already given both Language and level.</t>
   </si>
   <si>
     <t>An error message should be displayed as 'Duplicated Data'</t>
   </si>
   <si>
-    <t>TC_07</t>
-  </si>
-  <si>
-    <t>2.4 Verify if the user is able to add same language with different level.</t>
-  </si>
-  <si>
-    <t>4.Input already given language and different level.</t>
+    <t>TC_Lang_07</t>
+  </si>
+  <si>
+    <t>2.4 Verify if the user is able to add same Language with different level.</t>
+  </si>
+  <si>
+    <t>4.Input already given Language and different level.</t>
   </si>
   <si>
     <t>Language: English
 Level: Conversational</t>
   </si>
   <si>
-    <t>TC_08</t>
-  </si>
-  <si>
-    <t>2.5 Verify if the user is able to add same language by changing the casing of alphabets and keeping the level same.</t>
-  </si>
-  <si>
-    <t>4.  Input already given language in lowercase and same level.</t>
+    <t>TC_Lang_08</t>
+  </si>
+  <si>
+    <t>2.5 Verify if the user is able to add same Language by changing the casing of alphabets and keeping the level same.</t>
+  </si>
+  <si>
+    <t>4.  Input already given Language in lowercase and same level.</t>
   </si>
   <si>
     <t>Language: english
@@ -282,10 +283,10 @@
     <t>The data is added successfully.</t>
   </si>
   <si>
-    <t>TC_09</t>
-  </si>
-  <si>
-    <t>2.6 Check if user is able to cancel language adding process if the user doesn't want to add.</t>
+    <t>TC_Lang_09</t>
+  </si>
+  <si>
+    <t>2.6 Check if user is able to cancel Language adding process if the user doesn't want to add.</t>
   </si>
   <si>
     <t>5. Click on cancel button</t>
@@ -294,49 +295,49 @@
     <t>The process should be cancelled.</t>
   </si>
   <si>
-    <t>The add language and level fields disappear.</t>
-  </si>
-  <si>
-    <t>TC_10</t>
-  </si>
-  <si>
-    <t>2.7 Check if user is able to add when he does not enter language and only chooses level.</t>
-  </si>
-  <si>
-    <t>4.  Leave language empty and choose a valid level.Click on add button</t>
+    <t>The add Language and level fields disappear.</t>
+  </si>
+  <si>
+    <t>TC_Lang_10</t>
+  </si>
+  <si>
+    <t>2.7 Check if user is able to add when he does not enter Language and only chooses level.</t>
+  </si>
+  <si>
+    <t>4.  Leave Language empty and choose a valid level.Click on add button</t>
   </si>
   <si>
     <t>Language:
 Level: Basic</t>
   </si>
   <si>
-    <t>TC_11</t>
-  </si>
-  <si>
-    <t>2.8 Check whether user is able to add by only entering language and not choosing level.</t>
-  </si>
-  <si>
-    <t>4.  Give  a valid language and dont choose any level.</t>
+    <t>TC_Lang_11</t>
+  </si>
+  <si>
+    <t>2.8 Check whether user is able to add by only entering Language and not choosing level.</t>
+  </si>
+  <si>
+    <t>4.  Give  a valid Language and dont choose any level.</t>
   </si>
   <si>
     <t>Language: French
 Level:</t>
   </si>
   <si>
-    <t>TC_12</t>
-  </si>
-  <si>
-    <t>2.9 Check if user is able to input numbers in language and level and add them.</t>
-  </si>
-  <si>
-    <t>4.  Give  inputs to language and level.</t>
+    <t>TC_Lang_12</t>
+  </si>
+  <si>
+    <t>2.9 Check if user is able to input numbers in Language and level and add them.</t>
+  </si>
+  <si>
+    <t>4.  Give  inputs to Language and level.</t>
   </si>
   <si>
     <t>Language: 123
 Level: Native/Bilingual</t>
   </si>
   <si>
-    <t>TC_13</t>
+    <t>TC_Lang_13</t>
   </si>
   <si>
     <t>2.10 Check whether user is able to input alpha numeric data in Language field and add it.</t>
@@ -346,7 +347,7 @@
 Level: Fluent</t>
   </si>
   <si>
-    <t>TC_14</t>
+    <t>TC_Lang_14</t>
   </si>
   <si>
     <t>2.11 Check whether user is able to input blank space in Language field and add it.</t>
@@ -355,7 +356,7 @@
     <t>2. Click on Languages tab</t>
   </si>
   <si>
-    <t>4.  Give  inputs to language and level</t>
+    <t>4.  Give  inputs to Language and level</t>
   </si>
   <si>
     <t>Language: 
@@ -365,86 +366,88 @@
     <t>5. Click on add button</t>
   </si>
   <si>
-    <t>2.12 Check if user can add more than four languages.</t>
+    <t>The field accepts sapces.</t>
+  </si>
+  <si>
+    <t>TC_Lang_15</t>
+  </si>
+  <si>
+    <t>2.12 Check if user can add more than four Languages.</t>
   </si>
   <si>
     <t>1. Execute PR1 and PR2</t>
   </si>
   <si>
-    <t>2. Four language records are already added.</t>
+    <t>2. Four Language records are already added.</t>
   </si>
   <si>
     <t>User shouldn't be able find add new button.</t>
   </si>
   <si>
-    <t>TC_15</t>
-  </si>
-  <si>
-    <t>3.1 Check if the user is able to edit the added languages and level giving different valid inputs.</t>
+    <t>TC_Lang_16</t>
+  </si>
+  <si>
+    <t>3.1 Check if the user is able to edit the added Languages and level giving different valid inputs.</t>
   </si>
   <si>
     <t>3. Click on Edit button.</t>
   </si>
   <si>
-    <t>4.  Give valid inputs to language and level.</t>
+    <t>4.  Give valid inputs to Language and level.</t>
   </si>
   <si>
     <t>Language: Spanish
 Level: Conversational</t>
   </si>
   <si>
-    <t>TC_16</t>
-  </si>
-  <si>
-    <t>3.2 Check if the user edits the language field as empty and adds the record.</t>
-  </si>
-  <si>
-    <t>4.  Clear language field and dont change the level.</t>
-  </si>
-  <si>
-    <t>The previously existing language gets added.</t>
-  </si>
-  <si>
-    <t>TC_17</t>
-  </si>
-  <si>
-    <t>3.3 Check if the user can edit the language as is and changes the level to empty and save it.</t>
-  </si>
-  <si>
-    <t>4.  Clear level field and dont change the language.</t>
+    <t>TC_Lang_17</t>
+  </si>
+  <si>
+    <t>3.2 Check if the user edits the Language field as empty and adds the record.</t>
+  </si>
+  <si>
+    <t>4.  Clear Language field and dont change the level.</t>
+  </si>
+  <si>
+    <t>The previously existing Language gets verifed and the message says Language already added.</t>
+  </si>
+  <si>
+    <t>TC_Lang_18</t>
+  </si>
+  <si>
+    <t>3.3 Check if the user can edit the Language as is and changes the level to empty and save it.</t>
+  </si>
+  <si>
+    <t>4.  Clear level field and dont change the Language.</t>
   </si>
   <si>
     <t>Language: German
 Level: Language Level</t>
   </si>
   <si>
-    <t>TC_18</t>
+    <t>TC_Lang_19</t>
   </si>
   <si>
     <t>3.4 Check if the user can cancel the editing process</t>
   </si>
   <si>
-    <t>4.  Leave the language and level as is.</t>
-  </si>
-  <si>
-    <t>TC_19</t>
-  </si>
-  <si>
-    <t>3.5 Check if the user can add the same language with  different level</t>
-  </si>
-  <si>
-    <t>4.  Leave the language as is and change the level.</t>
-  </si>
-  <si>
-    <t>Language: English
-Level: N</t>
+    <t>4.  Leave the Language and level as is.</t>
+  </si>
+  <si>
+    <t>TC_Lang_20</t>
+  </si>
+  <si>
+    <t>3.5 Check if the user can add the same Language with  different level</t>
+  </si>
+  <si>
+    <t>4.  Leave the Language as is and change the level.</t>
   </si>
   <si>
     <t>Language: English
 Level: Native/Bilingual</t>
   </si>
   <si>
-    <t>TC_20</t>
+    <t>TC_Lang_21</t>
   </si>
   <si>
     <t>4.1 Check if the user can delete a record.</t>
@@ -453,7 +456,244 @@
     <t>3. Click on delete button for any record which user wants to delete.</t>
   </si>
   <si>
-    <t>The language has been deleted from your languages.</t>
+    <t>The Language has been deleted from your Languages.</t>
+  </si>
+  <si>
+    <t>TC_Skill_01</t>
+  </si>
+  <si>
+    <t>1.1 Check if user is able to see the Skill fields in home page.</t>
+  </si>
+  <si>
+    <t>1. After successful login user should be able to see Skill tab on profile page.</t>
+  </si>
+  <si>
+    <t>TC_Skill_02</t>
+  </si>
+  <si>
+    <t>1.2 Check whether user can see Skill field after clicking on Go To Profile in 'UserName' dropdown.</t>
+  </si>
+  <si>
+    <t>User can see Skill field.</t>
+  </si>
+  <si>
+    <t>TC_Skill_03</t>
+  </si>
+  <si>
+    <t>1.3 Check if the user can see Skill field after clicking on Profile Tab on home page</t>
+  </si>
+  <si>
+    <t>User can see Skill field in profile page.</t>
+  </si>
+  <si>
+    <t>TC_Skill_04</t>
+  </si>
+  <si>
+    <t>2.1 Check if user is able to add Skills without giving any inputs and Clicking on add.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Click on Skills tab
+</t>
+  </si>
+  <si>
+    <t>Skill: 
+Level: Choose Skill Level</t>
+  </si>
+  <si>
+    <t>An error message should be displayed as 'Please Enter Skill and experience level'.</t>
+  </si>
+  <si>
+    <t>TC_Skill_05</t>
+  </si>
+  <si>
+    <t>2.2 Check if user is able to add Skills after entering valid Skill and level, and then clicking on add.</t>
+  </si>
+  <si>
+    <t>Skill: Tester
+Level: Intermediate</t>
+  </si>
+  <si>
+    <t>A message should be displayed as 'The "Skill" has been added to your Skills'.</t>
+  </si>
+  <si>
+    <t>TC_Skill_06</t>
+  </si>
+  <si>
+    <t>4. Input already given both Skill and level.</t>
+  </si>
+  <si>
+    <t>TC_Skill_07</t>
+  </si>
+  <si>
+    <t>2.4 Verify if the user is able to add same Skill with different level.</t>
+  </si>
+  <si>
+    <t>4.Input already given Skill and different level.</t>
+  </si>
+  <si>
+    <t>Skill: Tester
+Level: Expert</t>
+  </si>
+  <si>
+    <t>TC_Skill_08</t>
+  </si>
+  <si>
+    <t>2.5 Verify if the user is able to add same Skill by changing the casing of alphabets and keeping the level same.</t>
+  </si>
+  <si>
+    <t>4.  Input already given Skill in lowercase and same level.</t>
+  </si>
+  <si>
+    <t>TC_Skill_09</t>
+  </si>
+  <si>
+    <t>2.6 Check if user is able to cancel Skill adding process if the user doesn't want to add.</t>
+  </si>
+  <si>
+    <t>The add Skill and level fields disappear.</t>
+  </si>
+  <si>
+    <t>TC_Skill_10</t>
+  </si>
+  <si>
+    <t>2.7 Check if user is able to add when he does not enter Skill and only chooses level.</t>
+  </si>
+  <si>
+    <t>4.  Leave Skill empty and choose a valid level.Click on add button</t>
+  </si>
+  <si>
+    <t>Skill:
+Level: Beginner</t>
+  </si>
+  <si>
+    <t>An error message should be displayed as 'Please Enter Skill and level'.</t>
+  </si>
+  <si>
+    <t>TC_Skill_11</t>
+  </si>
+  <si>
+    <t>2.8 Check whether user is able to add by only entering Skill and not choosing level.</t>
+  </si>
+  <si>
+    <t>4.  Give  a valid Skill and dont choose any level.</t>
+  </si>
+  <si>
+    <t>Skill: QA
+Level:</t>
+  </si>
+  <si>
+    <t>TC_Skill_12</t>
+  </si>
+  <si>
+    <t>2.9 Check if user is able to input numbers in Skill and level and add them.</t>
+  </si>
+  <si>
+    <t>4.  Give  inputs to Skill and level.</t>
+  </si>
+  <si>
+    <t>Skill: 1234
+Level: Expert</t>
+  </si>
+  <si>
+    <t>TC_Skill_13</t>
+  </si>
+  <si>
+    <t>2.10 Check whether user is able to input alpha numeric data in Skill field and add it.</t>
+  </si>
+  <si>
+    <t>Skill: [!#$&gt;? 
+Level: Beginner</t>
+  </si>
+  <si>
+    <t>TC_Skill_14</t>
+  </si>
+  <si>
+    <t>2.11 Check whether user is able to input blank space in Skill field and add it.</t>
+  </si>
+  <si>
+    <t>2. Click on Skills tab</t>
+  </si>
+  <si>
+    <t>4.  Give  inputs to Skill and level</t>
+  </si>
+  <si>
+    <t>Skill: " "
+Level: Expert</t>
+  </si>
+  <si>
+    <t>TC_Skill_15</t>
+  </si>
+  <si>
+    <t>3.1 Check if the user is able to edit the added Skills and level giving different valid inputs.</t>
+  </si>
+  <si>
+    <t>4.  Give valid inputs to Skill and level.</t>
+  </si>
+  <si>
+    <t>Skill: Test Analyst
+Level: Intermediate</t>
+  </si>
+  <si>
+    <t>A message should be displayed as 'The "Skill" has been updated to your Skills'.</t>
+  </si>
+  <si>
+    <t>TC_Skill_16</t>
+  </si>
+  <si>
+    <t>3.2 Check if the user edits the Skill field as empty and adds the record.</t>
+  </si>
+  <si>
+    <t>4.  Clear Skill field and dont change the level.</t>
+  </si>
+  <si>
+    <t>Skill: 
+Level: Expert</t>
+  </si>
+  <si>
+    <t>The previously existing Skill gets verifed and the message says Skill already added.</t>
+  </si>
+  <si>
+    <t>TC_Skill_17</t>
+  </si>
+  <si>
+    <t>3.3 Check if the user keeps the Skill as is and changes the level to empty and save it.</t>
+  </si>
+  <si>
+    <t>4.  Clear level field and dont change the Skill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skill: Test Analyst
+Level: </t>
+  </si>
+  <si>
+    <t>TC_Skill_18</t>
+  </si>
+  <si>
+    <t>4.  Leave the Skill and level as is.</t>
+  </si>
+  <si>
+    <t>TC_Skill_19</t>
+  </si>
+  <si>
+    <t>3.5 Check if the user can add the same Skill with  different level</t>
+  </si>
+  <si>
+    <t>4.  Leave the Skill as is and change the level.</t>
+  </si>
+  <si>
+    <t>TC_Skill_20</t>
+  </si>
+  <si>
+    <t>4.1 Check if the user can delete a particular record.</t>
+  </si>
+  <si>
+    <t>3. Click on skills Tab.</t>
+  </si>
+  <si>
+    <t>4. Click on delete button for any record which user wants to delete.</t>
+  </si>
+  <si>
+    <t>The Skill has been deleted from your Skills.</t>
   </si>
 </sst>
 </file>
@@ -461,10 +701,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -506,17 +746,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,23 +774,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -565,23 +790,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -597,17 +815,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,14 +839,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,19 +910,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,19 +922,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +964,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,43 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,37 +1066,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,18 +1079,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,54 +1103,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,12 +1156,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -990,160 +1230,163 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1509,65 +1752,65 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="16.8571428571429" style="16" customWidth="1"/>
-    <col min="2" max="2" width="64.7142857142857" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10" style="17" customWidth="1"/>
-    <col min="4" max="4" width="43.2857142857143" style="17" customWidth="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="17"/>
-    <col min="6" max="6" width="23.2857142857143" style="17" customWidth="1"/>
-    <col min="7" max="7" width="24.1428571428571" style="17" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="17"/>
+    <col min="1" max="1" width="16.8571428571429" style="17" customWidth="1"/>
+    <col min="2" max="2" width="64.7142857142857" style="18" customWidth="1"/>
+    <col min="3" max="3" width="10" style="18" customWidth="1"/>
+    <col min="4" max="4" width="43.2857142857143" style="18" customWidth="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="18"/>
+    <col min="6" max="6" width="23.2857142857143" style="18" customWidth="1"/>
+    <col min="7" max="7" width="24.1428571428571" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:7">
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" ht="29.25" spans="2:7">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" ht="29.25" spans="2:7">
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="20" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C5"/>
@@ -1577,7 +1820,7 @@
       <c r="G5"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="22"/>
+      <c r="B6" s="23"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
@@ -1585,10 +1828,10 @@
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C7"/>
@@ -1598,10 +1841,10 @@
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>10</v>
       </c>
       <c r="C8"/>
@@ -1611,10 +1854,10 @@
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C9"/>
@@ -1624,10 +1867,10 @@
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>14</v>
       </c>
       <c r="C10"/>
@@ -1637,10 +1880,10 @@
       <c r="G10"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C11"/>
@@ -1650,10 +1893,10 @@
       <c r="G11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C12"/>
@@ -1663,10 +1906,10 @@
       <c r="G12"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>20</v>
       </c>
       <c r="C13"/>
@@ -1676,10 +1919,10 @@
       <c r="G13"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C14"/>
@@ -1689,7 +1932,7 @@
       <c r="G14"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -1697,7 +1940,7 @@
       <c r="G15"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -1705,7 +1948,7 @@
       <c r="G16"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1713,7 +1956,7 @@
       <c r="G17"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -1721,7 +1964,7 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1729,7 +1972,7 @@
       <c r="G19"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1744,7 +1987,7 @@
       <c r="G21"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -1752,7 +1995,7 @@
       <c r="G22"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="22"/>
+      <c r="B23" s="23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -1760,7 +2003,7 @@
       <c r="G23"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -1775,7 +2018,7 @@
       <c r="G25"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="18"/>
+      <c r="B26" s="19"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -1783,7 +2026,7 @@
       <c r="G26"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="18"/>
+      <c r="B27" s="19"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -1791,7 +2034,7 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="18"/>
+      <c r="B28" s="19"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -1799,7 +2042,7 @@
       <c r="G28"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="18"/>
+      <c r="B29" s="19"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1807,7 +2050,7 @@
       <c r="G29"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="18"/>
+      <c r="B30" s="19"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1815,7 +2058,7 @@
       <c r="G30"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="18"/>
+      <c r="B31" s="19"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1823,7 +2066,7 @@
       <c r="G31"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="18"/>
+      <c r="B32" s="19"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1831,7 +2074,7 @@
       <c r="G32"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="18"/>
+      <c r="B33" s="19"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -1839,7 +2082,7 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="18"/>
+      <c r="B34" s="19"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -1854,7 +2097,7 @@
       <c r="G35"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="18"/>
+      <c r="B36" s="19"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -1862,7 +2105,7 @@
       <c r="G36"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="18"/>
+      <c r="B37" s="19"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -1870,7 +2113,7 @@
       <c r="G37"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="18"/>
+      <c r="B38" s="19"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -1888,969 +2131,2518 @@
   <sheetPr/>
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.7142857142857" style="3" customWidth="1"/>
-    <col min="3" max="3" width="44.1428571428571" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.1428571428571" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.5714285714286" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20" style="2" customWidth="1"/>
-    <col min="7" max="7" width="34.4285714285714" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.2857142857143" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="18.1428571428571" style="2"/>
+    <col min="1" max="1" width="9.71428571428571" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.7142857142857" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.1428571428571" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.7142857142857" style="10" customWidth="1"/>
+    <col min="5" max="5" width="28.5714285714286" style="10" customWidth="1"/>
+    <col min="6" max="6" width="24.5714285714286" style="10" customWidth="1"/>
+    <col min="7" max="7" width="28.2857142857143" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.2857142857143" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="18.1428571428571" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="9" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="63" customHeight="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="10" customFormat="1" ht="63" customHeight="1" spans="1:7">
+      <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" ht="75" spans="4:6">
-      <c r="D3" s="2" t="s">
+    <row r="3" ht="45" spans="4:6">
+      <c r="D3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:5">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="45" spans="1:5">
-      <c r="A5" s="7" t="s">
+    <row r="4" s="10" customFormat="1" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" s="10" customFormat="1" ht="45" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="13" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="5:7">
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:5">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="30" spans="1:7">
-      <c r="A8" s="7" t="s">
+    <row r="7" s="10" customFormat="1" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" s="10" customFormat="1" ht="45" spans="1:7">
+      <c r="A8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:5">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="30" spans="1:5">
-      <c r="A10" s="7" t="s">
+    <row r="9" s="10" customFormat="1" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" s="10" customFormat="1" ht="45" spans="1:5">
+      <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" ht="17" customHeight="1" spans="5:5">
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" ht="30" spans="5:6">
-      <c r="E13" s="2" t="s">
+    <row r="13" ht="45" spans="5:6">
+      <c r="E13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="5:7">
-      <c r="E14" s="2" t="s">
+    <row r="14" ht="45" spans="5:7">
+      <c r="E14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="45" spans="1:5">
-      <c r="A16" s="7" t="s">
+    <row r="16" s="10" customFormat="1" ht="60" spans="1:5">
+      <c r="A16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" ht="17" customHeight="1" spans="5:5">
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" ht="30" spans="5:6">
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" ht="45" spans="5:7">
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:4">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="30" spans="1:5">
-      <c r="A22" s="7" t="s">
+    <row r="21" s="10" customFormat="1" spans="1:4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" s="10" customFormat="1" ht="30" spans="1:5">
+      <c r="A22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1" spans="5:5">
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" ht="30" spans="5:6">
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" ht="30" spans="5:7">
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" ht="30" spans="1:5">
-      <c r="A28" s="7" t="s">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" ht="45" spans="1:5">
+      <c r="A28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="5:5">
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="31" ht="35" customHeight="1" spans="5:6">
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="32" ht="30" spans="5:7">
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:4">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="45" spans="1:5">
-      <c r="A34" s="7" t="s">
+    <row r="33" s="10" customFormat="1" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" s="10" customFormat="1" ht="60" spans="1:5">
+      <c r="A34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" ht="19" customHeight="1" spans="5:5">
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" ht="30" spans="5:6">
-      <c r="E37" s="2" t="s">
+    <row r="37" ht="45" spans="5:6">
+      <c r="E37" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="38" ht="30" spans="5:8">
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="14" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:4">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="30" spans="1:5">
-      <c r="A40" s="7" t="s">
+    <row r="39" s="10" customFormat="1" spans="1:4">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" s="10" customFormat="1" ht="45" spans="1:5">
+      <c r="A40" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" ht="17" customHeight="1" spans="5:5">
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="43" ht="50" customHeight="1" spans="5:8">
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="45" s="2" customFormat="1" ht="30" spans="1:5">
-      <c r="A45" s="7" t="s">
+    <row r="45" s="10" customFormat="1" ht="45" spans="1:5">
+      <c r="A45" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="46" ht="17" customHeight="1" spans="5:5">
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="48" ht="30" spans="5:6">
-      <c r="E48" s="2" t="s">
+    <row r="48" ht="45" spans="5:6">
+      <c r="E48" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" ht="30" spans="5:7">
-      <c r="E49" s="2" t="s">
+    <row r="49" ht="45" spans="5:7">
+      <c r="E49" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="7"/>
-    </row>
-    <row r="51" ht="30" spans="1:5">
-      <c r="A51" s="7" t="s">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" ht="45" spans="1:5">
+      <c r="A51" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="5:5">
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="5:5">
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="54" ht="30" spans="5:6">
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="55" ht="30" spans="5:7">
-      <c r="E55" s="2" t="s">
+    <row r="55" ht="45" spans="5:7">
+      <c r="E55" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" ht="30" spans="1:5">
-      <c r="A57" s="7" t="s">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" ht="45" spans="1:5">
+      <c r="A57" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="58" ht="18" customHeight="1" spans="5:5">
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="59" spans="5:5">
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" ht="45" spans="5:8">
-      <c r="E60" s="2" t="s">
+    <row r="60" ht="30" spans="5:8">
+      <c r="E60" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="H60" s="14"/>
-    </row>
-    <row r="61" ht="30" spans="5:8">
-      <c r="E61" s="2" t="s">
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" ht="45" spans="5:8">
+      <c r="E61" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H61" s="15" t="s">
+      <c r="H61" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="62" s="2" customFormat="1" spans="1:4">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="7"/>
-    </row>
-    <row r="63" s="2" customFormat="1" ht="30" spans="1:5">
-      <c r="A63" s="7" t="s">
+    <row r="62" s="10" customFormat="1" spans="1:4">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" s="10" customFormat="1" ht="45" spans="1:5">
+      <c r="A63" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="64" ht="19" customHeight="1" spans="5:5">
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="65" spans="5:5">
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="66" ht="30" spans="5:6">
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" ht="30" spans="5:8">
-      <c r="E67" s="2" t="s">
+    <row r="67" ht="45" spans="5:8">
+      <c r="E67" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H67" s="15" t="s">
+      <c r="H67" s="16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="7"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="7"/>
-    </row>
-    <row r="69" ht="30" spans="1:5">
-      <c r="A69" s="3" t="s">
+      <c r="B68" s="5"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" ht="45" spans="1:5">
+      <c r="A69" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="70" ht="19" customHeight="1" spans="5:5">
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="71" spans="5:5">
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="72" ht="30" spans="5:6">
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="73" ht="30" spans="5:7">
-      <c r="E73" s="2" t="s">
+    <row r="73" ht="45" spans="5:8">
+      <c r="E73" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="10" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="74" s="2" customFormat="1" spans="1:4">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="D74" s="7"/>
+      <c r="H73" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" s="10" customFormat="1" spans="1:4">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="D74" s="5"/>
     </row>
     <row r="75" ht="30" spans="1:5">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7" t="s">
+      <c r="A75" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" ht="30" spans="1:5">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" ht="30" spans="1:7">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" ht="45" spans="1:5">
+      <c r="A79" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" ht="16" customHeight="1" spans="5:5">
+      <c r="E80" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" ht="30" spans="5:6">
+      <c r="E82" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" ht="45" spans="5:7">
+      <c r="E83" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" ht="45" spans="1:5">
+      <c r="A85" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" ht="18" customHeight="1" spans="5:5">
+      <c r="E86" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5">
+      <c r="E87" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" ht="30" spans="5:6">
+      <c r="E88" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" ht="90" spans="5:8">
+      <c r="E89" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" ht="45" spans="1:5">
+      <c r="A91" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" ht="30" spans="5:5">
+      <c r="E92" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5">
+      <c r="E93" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" ht="30" spans="5:6">
+      <c r="E94" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" ht="45" spans="5:7">
+      <c r="E95" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G95" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" ht="30" spans="1:5">
+      <c r="A97" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E97" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="5:5">
+      <c r="E98" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="100" ht="30" spans="5:5">
+      <c r="E100" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" ht="30" spans="5:7">
+      <c r="E101" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" ht="45" spans="1:5">
+      <c r="A103" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" ht="16" customHeight="1" spans="5:5">
+      <c r="E104" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" ht="30" spans="5:6">
+      <c r="E106" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" ht="30" spans="5:8">
+      <c r="E107" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H107" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" ht="30" spans="1:5">
+      <c r="A109" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" ht="19" customHeight="1" spans="5:5">
+      <c r="E110" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" ht="45" spans="5:7">
+      <c r="E111" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G111" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="12.9333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.4285714285714" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6666666666667" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" ht="60" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="60" spans="1:8">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="45" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="45" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="45" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="30" spans="1:8">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="30" spans="1:8">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" ht="30" spans="1:8">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" ht="45" spans="1:8">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" ht="45" spans="1:8">
+      <c r="A16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" ht="30" spans="1:8">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" ht="30" spans="1:8">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" ht="30" spans="1:8">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" ht="45" spans="1:8">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" ht="30" spans="1:8">
+      <c r="A22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" ht="30" spans="1:8">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" ht="30" spans="1:8">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" ht="30" spans="1:8">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" ht="30" spans="1:8">
+      <c r="A28" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" ht="30" spans="1:8">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" ht="30" spans="1:8">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" ht="30" spans="1:8">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" ht="45" spans="1:8">
+      <c r="A34" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" ht="30" spans="1:8">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" ht="30" spans="1:8">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" ht="45" spans="1:8">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" ht="45" spans="1:8">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" ht="45" spans="1:8">
+      <c r="A40" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" ht="30" spans="1:8">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" ht="30" spans="1:8">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" ht="45" spans="1:8">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" ht="45" spans="1:8">
+      <c r="A45" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" ht="30" spans="1:8">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" ht="30" spans="1:8">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" ht="45" spans="1:8">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" ht="45" spans="1:8">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" ht="45" spans="1:8">
+      <c r="A51" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" ht="30" spans="1:8">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" ht="30" spans="1:8">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" ht="30" spans="1:8">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" ht="45" spans="1:8">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" ht="45" spans="1:8">
+      <c r="A57" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" ht="30" spans="1:8">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" ht="30" spans="1:8">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" ht="30" spans="1:8">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" ht="45" spans="1:8">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" ht="45" spans="1:8">
+      <c r="A63" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" ht="30" spans="1:8">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" ht="30" spans="1:8">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" ht="30" spans="1:8">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" ht="45" spans="1:8">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="6"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" ht="45" spans="1:8">
+      <c r="A69" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" ht="30" spans="1:8">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" ht="30" spans="1:8">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" ht="45" spans="1:8">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H73" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D75" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E75" s="2" t="s">
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" ht="45" spans="1:8">
+      <c r="A75" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="76" ht="30" spans="1:5">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="10"/>
-      <c r="D76" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" ht="30" spans="1:7">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
-      <c r="E77" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
+      <c r="E77" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" ht="30" spans="1:8">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="10"/>
-      <c r="D78" s="7"/>
-    </row>
-    <row r="79" ht="30" spans="1:5">
-      <c r="A79" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D79" s="7" t="s">
+      <c r="D78" s="10"/>
+      <c r="E78" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" ht="45" spans="1:8">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" ht="30" spans="1:8">
+      <c r="A81" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E81" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="80" ht="16" customHeight="1" spans="5:5">
-      <c r="E80" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5">
-      <c r="E81" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" ht="30" spans="5:6">
-      <c r="E82" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F82" s="2" t="s">
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="83" ht="45" spans="5:7">
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" ht="30" spans="1:8">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" ht="105" spans="1:8">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G83" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" ht="30" spans="1:5">
-      <c r="A85" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D85" s="7" t="s">
+      <c r="F85" s="10"/>
+      <c r="G85" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H85" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" ht="45" spans="1:8">
+      <c r="A87" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E87" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="86" ht="18" customHeight="1" spans="5:5">
-      <c r="E86" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="87" spans="5:5">
-      <c r="E87" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="88" ht="30" spans="5:6">
-      <c r="E88" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="89" ht="45" spans="5:8">
-      <c r="E89" s="2" t="s">
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" ht="30" spans="1:8">
+      <c r="A88" s="6"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" ht="30" spans="1:8">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+    </row>
+    <row r="91" ht="45" spans="1:8">
+      <c r="A91" s="6"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" ht="30" spans="1:5">
-      <c r="A91" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D91" s="7" t="s">
+      <c r="F91" s="10"/>
+      <c r="G91" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="H91" s="10"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+    </row>
+    <row r="93" ht="30" spans="1:8">
+      <c r="A93" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E93" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="92" ht="30" spans="5:5">
-      <c r="E92" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="5:5">
-      <c r="E93" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" ht="30" spans="5:6">
-      <c r="E94" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" ht="30" spans="5:7">
-      <c r="E95" s="2" t="s">
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" ht="30" spans="1:8">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" ht="30" spans="1:8">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" ht="30" spans="1:8">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="6"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+    </row>
+    <row r="99" ht="30" spans="1:8">
+      <c r="A99" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+    </row>
+    <row r="100" ht="30" spans="1:8">
+      <c r="A100" s="6"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="6"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+    </row>
+    <row r="102" ht="30" spans="1:8">
+      <c r="A102" s="6"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+    </row>
+    <row r="103" ht="30" spans="1:8">
+      <c r="A103" s="6"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="97" ht="30" spans="1:5">
-      <c r="A97" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D97" s="7" t="s">
+      <c r="F103" s="10"/>
+      <c r="G103" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H103" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="6"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+    </row>
+    <row r="105" ht="30" spans="1:8">
+      <c r="A105" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="5:5">
-      <c r="E98" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="5:5">
-      <c r="E99" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="5:5">
-      <c r="E100" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="101" spans="5:7">
-      <c r="E101" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103" ht="30" spans="1:5">
-      <c r="A103" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="104" ht="16" customHeight="1" spans="5:5">
-      <c r="E104" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="5:5">
-      <c r="E105" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" ht="30" spans="5:6">
-      <c r="E106" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="107" ht="45" spans="5:8">
-      <c r="E107" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H107" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="110" ht="19" customHeight="1" spans="5:5">
-      <c r="E110" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" ht="30" spans="5:7">
-      <c r="E111" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="E105" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="6"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+    </row>
+    <row r="108" ht="30" spans="1:8">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H108" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/UserStoryTask1xlsx.xlsx
+++ b/UserStoryTask1xlsx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="9615" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -701,10 +701,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -746,14 +746,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,21 +762,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,10 +776,25 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,21 +803,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -837,18 +822,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -860,7 +845,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,6 +873,21 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -910,31 +910,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +934,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +982,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,31 +1000,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,31 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,25 +1042,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,17 +1148,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1204,157 +1193,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1407,9 +1407,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1758,59 +1755,59 @@
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="16.8571428571429" style="17" customWidth="1"/>
-    <col min="2" max="2" width="64.7142857142857" style="18" customWidth="1"/>
-    <col min="3" max="3" width="10" style="18" customWidth="1"/>
-    <col min="4" max="4" width="43.2857142857143" style="18" customWidth="1"/>
-    <col min="5" max="5" width="9.14285714285714" style="18"/>
-    <col min="6" max="6" width="23.2857142857143" style="18" customWidth="1"/>
-    <col min="7" max="7" width="24.1428571428571" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="18"/>
+    <col min="2" max="2" width="64.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="23.2857142857143" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1428571428571" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:7">
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" ht="29.25" spans="2:7">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="21" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
     <row r="4" ht="29.25" spans="2:7">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="21" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
       <c r="C5"/>
@@ -1820,7 +1817,7 @@
       <c r="G5"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="23"/>
+      <c r="B6" s="22"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6"/>
@@ -1831,7 +1828,7 @@
       <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C7"/>
@@ -1844,7 +1841,7 @@
       <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C8"/>
@@ -1857,7 +1854,7 @@
       <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C9"/>
@@ -1870,7 +1867,7 @@
       <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C10"/>
@@ -1883,7 +1880,7 @@
       <c r="A11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C11"/>
@@ -1896,7 +1893,7 @@
       <c r="A12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C12"/>
@@ -1909,7 +1906,7 @@
       <c r="A13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C13"/>
@@ -1922,7 +1919,7 @@
       <c r="A14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C14"/>
@@ -1932,7 +1929,7 @@
       <c r="G14"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -1940,7 +1937,7 @@
       <c r="G15"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -1948,7 +1945,7 @@
       <c r="G16"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="23"/>
+      <c r="B17" s="22"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
@@ -1956,7 +1953,7 @@
       <c r="G17"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="23"/>
+      <c r="B18" s="22"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -1964,7 +1961,7 @@
       <c r="G18"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="23"/>
+      <c r="B19" s="22"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -1972,7 +1969,7 @@
       <c r="G19"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="23"/>
+      <c r="B20" s="22"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1987,7 +1984,7 @@
       <c r="G21"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -1995,7 +1992,7 @@
       <c r="G22"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -2003,7 +2000,7 @@
       <c r="G23"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="23"/>
+      <c r="B24" s="22"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -2018,7 +2015,7 @@
       <c r="G25"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="19"/>
+      <c r="B26" s="18"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -2026,7 +2023,7 @@
       <c r="G26"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="19"/>
+      <c r="B27" s="18"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -2034,7 +2031,7 @@
       <c r="G27"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="19"/>
+      <c r="B28" s="18"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -2042,7 +2039,7 @@
       <c r="G28"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="19"/>
+      <c r="B29" s="18"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -2050,7 +2047,7 @@
       <c r="G29"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="19"/>
+      <c r="B30" s="18"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -2058,7 +2055,7 @@
       <c r="G30"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="19"/>
+      <c r="B31" s="18"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -2066,7 +2063,7 @@
       <c r="G31"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="19"/>
+      <c r="B32" s="18"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -2074,7 +2071,7 @@
       <c r="G32"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="19"/>
+      <c r="B33" s="18"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
@@ -2082,7 +2079,7 @@
       <c r="G33"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="19"/>
+      <c r="B34" s="18"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -2097,7 +2094,7 @@
       <c r="G35"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="19"/>
+      <c r="B36" s="18"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -2105,7 +2102,7 @@
       <c r="G36"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="19"/>
+      <c r="B37" s="18"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37"/>
@@ -2113,7 +2110,7 @@
       <c r="G37"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="19"/>
+      <c r="B38" s="18"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
@@ -2132,9 +2129,9 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2146,7 +2143,7 @@
     <col min="5" max="5" width="28.5714285714286" style="10" customWidth="1"/>
     <col min="6" max="6" width="24.5714285714286" style="10" customWidth="1"/>
     <col min="7" max="7" width="28.2857142857143" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.2857142857143" style="10" customWidth="1"/>
+    <col min="8" max="8" width="24.1428571428571" style="10" customWidth="1"/>
     <col min="9" max="16384" width="18.1428571428571" style="10"/>
   </cols>
   <sheetData>
@@ -2956,9 +2953,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" ht="30" spans="5:5">
+    <row r="92" spans="5:5">
       <c r="E92" s="9" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93" spans="5:5">
@@ -3128,7 +3125,7 @@
     <col min="9" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>23</v>
       </c>
@@ -3176,7 +3173,7 @@
       </c>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" ht="60" spans="1:8">
+    <row r="3" ht="30" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="10"/>
@@ -3308,7 +3305,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" ht="30" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="10"/>
@@ -3390,7 +3387,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" ht="30" spans="1:8">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="10"/>
@@ -3636,7 +3633,7 @@
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
     </row>
-    <row r="36" ht="30" spans="1:8">
+    <row r="36" spans="1:8">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="10"/>
@@ -3648,7 +3645,7 @@
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
     </row>
-    <row r="37" ht="45" spans="1:8">
+    <row r="37" ht="30" spans="1:8">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="10"/>
@@ -3662,7 +3659,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
     </row>
-    <row r="38" ht="45" spans="1:8">
+    <row r="38" ht="30" spans="1:8">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="10"/>
@@ -3720,7 +3717,7 @@
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
     </row>
-    <row r="42" ht="30" spans="1:8">
+    <row r="42" spans="1:8">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="10"/>
@@ -3732,7 +3729,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
     </row>
-    <row r="43" ht="45" spans="1:8">
+    <row r="43" ht="30" spans="1:8">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="10"/>
@@ -3790,7 +3787,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
     </row>
-    <row r="47" ht="30" spans="1:8">
+    <row r="47" spans="1:8">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="10"/>
@@ -3802,7 +3799,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
     </row>
-    <row r="48" ht="45" spans="1:8">
+    <row r="48" ht="30" spans="1:8">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="10"/>
@@ -3872,7 +3869,7 @@
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" ht="30" spans="1:8">
+    <row r="53" spans="1:8">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="10"/>
@@ -3954,7 +3951,7 @@
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" ht="30" spans="1:8">
+    <row r="59" spans="1:8">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="10"/>
@@ -4038,7 +4035,7 @@
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
     </row>
-    <row r="65" ht="30" spans="1:8">
+    <row r="65" spans="1:8">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="10"/>
@@ -4122,7 +4119,7 @@
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" ht="30" spans="1:8">
+    <row r="71" spans="1:8">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="10"/>
@@ -4314,7 +4311,7 @@
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
     </row>
-    <row r="85" ht="105" spans="1:8">
+    <row r="85" ht="75" spans="1:8">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="10"/>
@@ -4466,7 +4463,7 @@
       <c r="G95" s="10"/>
       <c r="H95" s="10"/>
     </row>
-    <row r="96" ht="30" spans="1:8">
+    <row r="96" spans="1:8">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="10"/>

--- a/UserStoryTask1xlsx.xlsx
+++ b/UserStoryTask1xlsx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="206">
   <si>
     <t>Description:</t>
   </si>
@@ -400,6 +400,9 @@
 Level: Conversational</t>
   </si>
   <si>
+    <t>5. Click on add button.</t>
+  </si>
+  <si>
     <t>TC_Lang_17</t>
   </si>
   <si>
@@ -701,10 +704,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -746,7 +749,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,7 +809,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,7 +817,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -777,7 +825,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -788,6 +836,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -806,46 +861,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,29 +879,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -910,7 +913,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,37 +1051,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,115 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,6 +1110,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1125,30 +1167,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1157,24 +1175,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,11 +1201,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,7 +1212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1227,130 +1230,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2131,7 +2134,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
+      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2884,7 +2887,7 @@
     </row>
     <row r="83" ht="45" spans="5:7">
       <c r="E83" s="10" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>60</v>
@@ -2892,13 +2895,13 @@
     </row>
     <row r="85" ht="45" spans="1:5">
       <c r="A85" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>39</v>
@@ -2919,13 +2922,13 @@
     </row>
     <row r="88" ht="30" spans="5:6">
       <c r="E88" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="89" ht="90" spans="5:8">
+    <row r="89" ht="60" spans="5:8">
       <c r="E89" s="10" t="s">
         <v>99</v>
       </c>
@@ -2933,18 +2936,18 @@
         <v>54</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" ht="45" spans="1:5">
       <c r="A91" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>39</v>
@@ -2965,10 +2968,10 @@
     </row>
     <row r="94" ht="30" spans="5:6">
       <c r="E94" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="95" ht="45" spans="5:7">
@@ -2981,13 +2984,13 @@
     </row>
     <row r="97" ht="30" spans="1:5">
       <c r="A97" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>39</v>
@@ -3008,7 +3011,7 @@
     </row>
     <row r="100" ht="30" spans="5:5">
       <c r="E100" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" ht="30" spans="5:7">
@@ -3021,13 +3024,13 @@
     </row>
     <row r="103" ht="45" spans="1:5">
       <c r="A103" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>39</v>
@@ -3048,10 +3051,10 @@
     </row>
     <row r="106" ht="30" spans="5:6">
       <c r="E106" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" ht="30" spans="5:8">
@@ -3067,13 +3070,13 @@
     </row>
     <row r="109" ht="30" spans="1:5">
       <c r="A109" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>39</v>
@@ -3089,10 +3092,10 @@
     </row>
     <row r="111" ht="45" spans="5:7">
       <c r="E111" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3153,13 +3156,13 @@
     </row>
     <row r="2" ht="60" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>32</v>
@@ -3169,7 +3172,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H2" s="10"/>
     </row>
@@ -3199,13 +3202,13 @@
     </row>
     <row r="5" ht="45" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>39</v>
@@ -3227,7 +3230,7 @@
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -3243,13 +3246,13 @@
     </row>
     <row r="8" ht="45" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>39</v>
@@ -3259,7 +3262,7 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -3275,13 +3278,13 @@
     </row>
     <row r="10" ht="45" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>39</v>
@@ -3299,7 +3302,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -3326,7 +3329,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -3341,7 +3344,7 @@
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H14" s="10"/>
     </row>
@@ -3357,13 +3360,13 @@
     </row>
     <row r="16" ht="45" spans="1:8">
       <c r="A16" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>39</v>
@@ -3381,7 +3384,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -3408,7 +3411,7 @@
         <v>57</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -3423,7 +3426,7 @@
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H20" s="10"/>
     </row>
@@ -3439,7 +3442,7 @@
     </row>
     <row r="22" ht="30" spans="1:8">
       <c r="A22" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>17</v>
@@ -3463,7 +3466,7 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -3487,10 +3490,10 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -3521,13 +3524,13 @@
     </row>
     <row r="28" ht="30" spans="1:8">
       <c r="A28" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>39</v>
@@ -3545,7 +3548,7 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -3569,10 +3572,10 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -3603,13 +3606,13 @@
     </row>
     <row r="34" ht="45" spans="1:8">
       <c r="A34" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>39</v>
@@ -3627,7 +3630,7 @@
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -3651,10 +3654,10 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -3687,13 +3690,13 @@
     </row>
     <row r="40" ht="45" spans="1:8">
       <c r="A40" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>39</v>
@@ -3711,7 +3714,7 @@
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -3742,7 +3745,7 @@
         <v>77</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3757,13 +3760,13 @@
     </row>
     <row r="45" ht="45" spans="1:8">
       <c r="A45" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>39</v>
@@ -3781,7 +3784,7 @@
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -3805,10 +3808,10 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -3823,7 +3826,7 @@
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H49" s="10"/>
     </row>
@@ -3839,13 +3842,13 @@
     </row>
     <row r="51" ht="45" spans="1:8">
       <c r="A51" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>39</v>
@@ -3863,7 +3866,7 @@
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -3887,10 +3890,10 @@
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -3905,7 +3908,7 @@
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H55" s="10"/>
     </row>
@@ -3921,13 +3924,13 @@
     </row>
     <row r="57" ht="45" spans="1:8">
       <c r="A57" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>39</v>
@@ -3945,7 +3948,7 @@
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
@@ -3969,10 +3972,10 @@
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="15"/>
@@ -3987,7 +3990,7 @@
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H61" s="16" t="s">
         <v>73</v>
@@ -4005,13 +4008,13 @@
     </row>
     <row r="63" ht="45" spans="1:8">
       <c r="A63" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>39</v>
@@ -4029,7 +4032,7 @@
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -4053,10 +4056,10 @@
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -4071,7 +4074,7 @@
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H67" s="16" t="s">
         <v>73</v>
@@ -4089,13 +4092,13 @@
     </row>
     <row r="69" ht="45" spans="1:8">
       <c r="A69" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>39</v>
@@ -4113,7 +4116,7 @@
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
@@ -4137,10 +4140,10 @@
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
@@ -4155,7 +4158,7 @@
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H73" s="14" t="s">
         <v>100</v>
@@ -4173,13 +4176,13 @@
     </row>
     <row r="75" ht="45" spans="1:8">
       <c r="A75" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>39</v>
@@ -4197,7 +4200,7 @@
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -4221,10 +4224,10 @@
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
@@ -4239,7 +4242,7 @@
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H79" s="10"/>
     </row>
@@ -4255,13 +4258,13 @@
     </row>
     <row r="81" ht="30" spans="1:8">
       <c r="A81" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>39</v>
@@ -4279,7 +4282,7 @@
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
@@ -4303,10 +4306,10 @@
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
@@ -4321,10 +4324,10 @@
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4339,13 +4342,13 @@
     </row>
     <row r="87" ht="45" spans="1:8">
       <c r="A87" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>39</v>
@@ -4363,7 +4366,7 @@
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
       <c r="E88" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
@@ -4387,10 +4390,10 @@
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
@@ -4405,7 +4408,7 @@
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H91" s="10"/>
     </row>
@@ -4421,13 +4424,13 @@
     </row>
     <row r="93" ht="30" spans="1:8">
       <c r="A93" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>39</v>
@@ -4445,7 +4448,7 @@
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
@@ -4469,7 +4472,7 @@
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
       <c r="E96" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
@@ -4501,13 +4504,13 @@
     </row>
     <row r="99" ht="30" spans="1:8">
       <c r="A99" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>39</v>
@@ -4525,7 +4528,7 @@
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
       <c r="E100" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
@@ -4549,10 +4552,10 @@
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
@@ -4585,13 +4588,13 @@
     </row>
     <row r="105" ht="30" spans="1:8">
       <c r="A105" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>39</v>
@@ -4621,7 +4624,7 @@
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
@@ -4633,11 +4636,11 @@
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H108" s="10"/>
     </row>

--- a/UserStoryTask1xlsx.xlsx
+++ b/UserStoryTask1xlsx.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="207">
   <si>
     <t>Description:</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>3.2 Check if the user edits the Language field as empty and adds the record.</t>
+  </si>
+  <si>
+    <t>1. Click on Profile tab on profile page.</t>
   </si>
   <si>
     <t>4.  Clear Language field and dont change the level.</t>
@@ -749,21 +752,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,8 +818,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -793,68 +850,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -863,7 +859,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,14 +882,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -913,7 +916,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,49 +982,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,7 +1024,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,25 +1048,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,61 +1078,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,45 +1113,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1167,8 +1131,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1180,6 +1159,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,8 +1205,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1212,7 +1215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1230,130 +1233,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2134,7 +2137,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2907,7 +2910,7 @@
         <v>39</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" ht="18" customHeight="1" spans="5:5">
@@ -2922,7 +2925,7 @@
     </row>
     <row r="88" ht="30" spans="5:6">
       <c r="E88" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F88" s="10" t="s">
         <v>98</v>
@@ -2936,18 +2939,18 @@
         <v>54</v>
       </c>
       <c r="H89" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="91" ht="45" spans="1:5">
       <c r="A91" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>39</v>
@@ -2968,10 +2971,10 @@
     </row>
     <row r="94" ht="30" spans="5:6">
       <c r="E94" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" ht="45" spans="5:7">
@@ -2984,13 +2987,13 @@
     </row>
     <row r="97" ht="30" spans="1:5">
       <c r="A97" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>39</v>
@@ -3011,7 +3014,7 @@
     </row>
     <row r="100" ht="30" spans="5:5">
       <c r="E100" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" ht="30" spans="5:7">
@@ -3024,13 +3027,13 @@
     </row>
     <row r="103" ht="45" spans="1:5">
       <c r="A103" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>39</v>
@@ -3051,10 +3054,10 @@
     </row>
     <row r="106" ht="30" spans="5:6">
       <c r="E106" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" ht="30" spans="5:8">
@@ -3070,13 +3073,13 @@
     </row>
     <row r="109" ht="30" spans="1:5">
       <c r="A109" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>39</v>
@@ -3092,10 +3095,10 @@
     </row>
     <row r="111" ht="45" spans="5:7">
       <c r="E111" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3156,13 +3159,13 @@
     </row>
     <row r="2" ht="60" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>32</v>
@@ -3172,7 +3175,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H2" s="10"/>
     </row>
@@ -3202,13 +3205,13 @@
     </row>
     <row r="5" ht="45" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>39</v>
@@ -3230,7 +3233,7 @@
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H6" s="10"/>
     </row>
@@ -3246,13 +3249,13 @@
     </row>
     <row r="8" ht="45" spans="1:8">
       <c r="A8" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>39</v>
@@ -3262,7 +3265,7 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -3278,13 +3281,13 @@
     </row>
     <row r="10" ht="45" spans="1:8">
       <c r="A10" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>39</v>
@@ -3302,7 +3305,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -3329,7 +3332,7 @@
         <v>51</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
@@ -3344,7 +3347,7 @@
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H14" s="10"/>
     </row>
@@ -3360,13 +3363,13 @@
     </row>
     <row r="16" ht="45" spans="1:8">
       <c r="A16" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>39</v>
@@ -3384,7 +3387,7 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -3411,7 +3414,7 @@
         <v>57</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -3426,7 +3429,7 @@
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H20" s="10"/>
     </row>
@@ -3442,7 +3445,7 @@
     </row>
     <row r="22" ht="30" spans="1:8">
       <c r="A22" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>17</v>
@@ -3466,7 +3469,7 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -3490,10 +3493,10 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
@@ -3524,13 +3527,13 @@
     </row>
     <row r="28" ht="30" spans="1:8">
       <c r="A28" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>39</v>
@@ -3548,7 +3551,7 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -3572,10 +3575,10 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
@@ -3606,13 +3609,13 @@
     </row>
     <row r="34" ht="45" spans="1:8">
       <c r="A34" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>39</v>
@@ -3630,7 +3633,7 @@
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
@@ -3654,10 +3657,10 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -3690,13 +3693,13 @@
     </row>
     <row r="40" ht="45" spans="1:8">
       <c r="A40" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>39</v>
@@ -3714,7 +3717,7 @@
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -3745,7 +3748,7 @@
         <v>77</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3760,13 +3763,13 @@
     </row>
     <row r="45" ht="45" spans="1:8">
       <c r="A45" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>39</v>
@@ -3784,7 +3787,7 @@
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -3808,10 +3811,10 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
@@ -3826,7 +3829,7 @@
       </c>
       <c r="F49" s="10"/>
       <c r="G49" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H49" s="10"/>
     </row>
@@ -3842,13 +3845,13 @@
     </row>
     <row r="51" ht="45" spans="1:8">
       <c r="A51" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>39</v>
@@ -3866,7 +3869,7 @@
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -3890,10 +3893,10 @@
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
@@ -3908,7 +3911,7 @@
       </c>
       <c r="F55" s="10"/>
       <c r="G55" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H55" s="10"/>
     </row>
@@ -3924,13 +3927,13 @@
     </row>
     <row r="57" ht="45" spans="1:8">
       <c r="A57" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>39</v>
@@ -3948,7 +3951,7 @@
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
@@ -3972,10 +3975,10 @@
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="15"/>
@@ -3990,7 +3993,7 @@
       </c>
       <c r="F61" s="10"/>
       <c r="G61" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H61" s="16" t="s">
         <v>73</v>
@@ -4008,13 +4011,13 @@
     </row>
     <row r="63" ht="45" spans="1:8">
       <c r="A63" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>39</v>
@@ -4032,7 +4035,7 @@
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -4056,10 +4059,10 @@
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
@@ -4074,7 +4077,7 @@
       </c>
       <c r="F67" s="10"/>
       <c r="G67" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H67" s="16" t="s">
         <v>73</v>
@@ -4092,13 +4095,13 @@
     </row>
     <row r="69" ht="45" spans="1:8">
       <c r="A69" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>39</v>
@@ -4116,7 +4119,7 @@
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
@@ -4140,10 +4143,10 @@
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
@@ -4158,7 +4161,7 @@
       </c>
       <c r="F73" s="10"/>
       <c r="G73" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H73" s="14" t="s">
         <v>100</v>
@@ -4176,13 +4179,13 @@
     </row>
     <row r="75" ht="45" spans="1:8">
       <c r="A75" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>39</v>
@@ -4200,7 +4203,7 @@
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -4224,10 +4227,10 @@
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
@@ -4242,7 +4245,7 @@
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H79" s="10"/>
     </row>
@@ -4258,13 +4261,13 @@
     </row>
     <row r="81" ht="30" spans="1:8">
       <c r="A81" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>39</v>
@@ -4282,7 +4285,7 @@
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
@@ -4306,10 +4309,10 @@
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
       <c r="E84" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
@@ -4324,10 +4327,10 @@
       </c>
       <c r="F85" s="10"/>
       <c r="G85" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H85" s="14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4342,13 +4345,13 @@
     </row>
     <row r="87" ht="45" spans="1:8">
       <c r="A87" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>39</v>
@@ -4366,7 +4369,7 @@
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
       <c r="E88" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
@@ -4390,10 +4393,10 @@
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G90" s="10"/>
       <c r="H90" s="10"/>
@@ -4408,7 +4411,7 @@
       </c>
       <c r="F91" s="10"/>
       <c r="G91" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H91" s="10"/>
     </row>
@@ -4424,13 +4427,13 @@
     </row>
     <row r="93" ht="30" spans="1:8">
       <c r="A93" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>39</v>
@@ -4448,7 +4451,7 @@
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
@@ -4472,7 +4475,7 @@
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
       <c r="E96" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
@@ -4504,13 +4507,13 @@
     </row>
     <row r="99" ht="30" spans="1:8">
       <c r="A99" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>39</v>
@@ -4528,7 +4531,7 @@
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
       <c r="E100" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
@@ -4552,10 +4555,10 @@
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
       <c r="E102" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G102" s="10"/>
       <c r="H102" s="10"/>
@@ -4588,13 +4591,13 @@
     </row>
     <row r="105" ht="30" spans="1:8">
       <c r="A105" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>39</v>
@@ -4624,7 +4627,7 @@
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
@@ -4636,11 +4639,11 @@
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F108" s="10"/>
       <c r="G108" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H108" s="10"/>
     </row>

--- a/UserStoryTask1xlsx.xlsx
+++ b/UserStoryTask1xlsx.xlsx
@@ -707,10 +707,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -752,21 +752,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -780,17 +788,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -805,16 +813,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -833,35 +857,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -873,8 +873,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -882,14 +889,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -916,13 +916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,7 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,31 +952,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,7 +994,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,73 +1060,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,13 +1072,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,7 +1132,40 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,30 +1196,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1201,21 +1210,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1233,130 +1233,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1755,7 +1755,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A5" sqref="A5:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2135,9 +2135,9 @@
   <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
